--- a/database/industries/zeraat/simorgh/cost/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\IDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B104BF3-2B86-49D0-8A9F-32E6AA2FE59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,7 +474,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -485,7 +486,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -532,6 +533,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -567,6 +585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,17 +753,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -738,7 +773,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +785,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -762,7 +797,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -772,7 +807,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -784,7 +819,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -796,7 +831,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -806,7 +841,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -828,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -838,7 +873,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -860,7 +895,7 @@
         <v>3957850</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -882,7 +917,7 @@
         <v>595400</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -904,7 +939,7 @@
         <v>749157</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -926,7 +961,7 @@
         <v>5302407</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -948,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>15687</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1001,8 +1036,8 @@
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>17</v>
+      <c r="F17" s="11">
+        <v>-1362661</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>17</v>
@@ -1014,7 +1049,7 @@
         <v>-837553</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
@@ -1036,7 +1071,7 @@
         <v>4480541</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>114366</v>
+        <v>1607</v>
       </c>
       <c r="G19" s="11">
         <v>132241</v>
@@ -1058,7 +1093,7 @@
         <v>183688</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1115,7 @@
         <v>-137505</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>4526724</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1112,7 +1147,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1122,7 +1157,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1132,7 +1167,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1164,7 +1199,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
@@ -1234,7 +1269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1306,7 +1341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1354,7 +1389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1378,7 +1413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -1426,7 +1461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
@@ -1450,7 +1485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>38</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
@@ -1498,7 +1533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
@@ -1522,7 +1557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
@@ -1546,7 +1581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
@@ -1570,7 +1605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
@@ -1592,7 +1627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
@@ -1614,7 +1649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
@@ -1636,7 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
@@ -1660,7 +1695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
@@ -1682,7 +1717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
@@ -1706,7 +1741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +1765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>51</v>
       </c>
@@ -1776,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1786,7 +1821,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1796,7 +1831,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1806,7 +1841,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>52</v>
       </c>
@@ -1828,7 +1863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1838,7 +1873,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +1895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>27</v>
       </c>
@@ -1908,7 +1943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>28</v>
       </c>
@@ -1932,7 +1967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +1991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>31</v>
       </c>
@@ -2004,7 +2039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>33</v>
       </c>
@@ -2028,7 +2063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>34</v>
       </c>
@@ -2052,7 +2087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>35</v>
       </c>
@@ -2076,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>36</v>
       </c>
@@ -2100,7 +2135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>37</v>
       </c>
@@ -2124,7 +2159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>39</v>
       </c>
@@ -2172,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>40</v>
       </c>
@@ -2196,7 +2231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>41</v>
       </c>
@@ -2220,7 +2255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>42</v>
       </c>
@@ -2244,7 +2279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>43</v>
       </c>
@@ -2266,7 +2301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>44</v>
       </c>
@@ -2288,7 +2323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>45</v>
       </c>
@@ -2310,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>46</v>
       </c>
@@ -2334,7 +2369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>48</v>
       </c>
@@ -2380,7 +2415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>49</v>
       </c>
@@ -2404,7 +2439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>50</v>
       </c>
@@ -2428,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>51</v>
       </c>
@@ -2450,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2460,7 +2495,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2470,7 +2505,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2480,7 +2515,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>54</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2512,7 +2547,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>27</v>
       </c>
@@ -2582,7 +2617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>28</v>
       </c>
@@ -2606,7 +2641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>29</v>
       </c>
@@ -2630,7 +2665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>30</v>
       </c>
@@ -2654,7 +2689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>31</v>
       </c>
@@ -2678,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>33</v>
       </c>
@@ -2702,7 +2737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>34</v>
       </c>
@@ -2726,7 +2761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>35</v>
       </c>
@@ -2750,7 +2785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>36</v>
       </c>
@@ -2774,7 +2809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>37</v>
       </c>
@@ -2798,7 +2833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>38</v>
       </c>
@@ -2822,7 +2857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>39</v>
       </c>
@@ -2846,7 +2881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>40</v>
       </c>
@@ -2870,7 +2905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>41</v>
       </c>
@@ -2894,7 +2929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>42</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>43</v>
       </c>
@@ -2940,7 +2975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>44</v>
       </c>
@@ -2962,7 +2997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>45</v>
       </c>
@@ -2984,7 +3019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>46</v>
       </c>
@@ -3008,7 +3043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>47</v>
       </c>
@@ -3030,7 +3065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>48</v>
       </c>
@@ -3054,7 +3089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>49</v>
       </c>
@@ -3078,7 +3113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>50</v>
       </c>
@@ -3102,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>51</v>
       </c>
@@ -3124,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3134,7 +3169,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3144,7 +3179,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3154,7 +3189,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>55</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3186,7 +3221,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -3208,7 +3243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>25</v>
       </c>
@@ -3232,7 +3267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>27</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>28</v>
       </c>
@@ -3280,7 +3315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>29</v>
       </c>
@@ -3304,7 +3339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>30</v>
       </c>
@@ -3328,7 +3363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>31</v>
       </c>
@@ -3352,7 +3387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>33</v>
       </c>
@@ -3376,7 +3411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>34</v>
       </c>
@@ -3400,7 +3435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>35</v>
       </c>
@@ -3424,7 +3459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>36</v>
       </c>
@@ -3448,7 +3483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>37</v>
       </c>
@@ -3472,7 +3507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>38</v>
       </c>
@@ -3496,7 +3531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>39</v>
       </c>
@@ -3520,7 +3555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
         <v>40</v>
       </c>
@@ -3544,7 +3579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>41</v>
       </c>
@@ -3568,7 +3603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>42</v>
       </c>
@@ -3592,7 +3627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>43</v>
       </c>
@@ -3614,7 +3649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>44</v>
       </c>
@@ -3636,7 +3671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>45</v>
       </c>
@@ -3658,7 +3693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>46</v>
       </c>
@@ -3682,7 +3717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>47</v>
       </c>
@@ -3704,7 +3739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>48</v>
       </c>
@@ -3728,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>49</v>
       </c>
@@ -3752,7 +3787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>50</v>
       </c>
@@ -3776,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="12" t="s">
         <v>51</v>
       </c>
@@ -3798,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3808,7 +3843,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3818,7 +3853,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3828,7 +3863,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
         <v>56</v>
       </c>
@@ -3850,7 +3885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3860,7 +3895,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>24</v>
       </c>
@@ -3884,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>25</v>
       </c>
@@ -3908,7 +3943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>27</v>
       </c>
@@ -3932,7 +3967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>28</v>
       </c>
@@ -3956,7 +3991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>29</v>
       </c>
@@ -3980,7 +4015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>30</v>
       </c>
@@ -4004,7 +4039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>31</v>
       </c>
@@ -4028,7 +4063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>33</v>
       </c>
@@ -4052,7 +4087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>34</v>
       </c>
@@ -4076,7 +4111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>35</v>
       </c>
@@ -4100,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>36</v>
       </c>
@@ -4124,7 +4159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>37</v>
       </c>
@@ -4148,7 +4183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>38</v>
       </c>
@@ -4172,7 +4207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>39</v>
       </c>
@@ -4196,7 +4231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>40</v>
       </c>
@@ -4220,7 +4255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>41</v>
       </c>
@@ -4244,7 +4279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>42</v>
       </c>
@@ -4268,7 +4303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>43</v>
       </c>
@@ -4292,7 +4327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>44</v>
       </c>
@@ -4316,7 +4351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>45</v>
       </c>
@@ -4340,7 +4375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>46</v>
       </c>
@@ -4364,7 +4399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>47</v>
       </c>
@@ -4388,7 +4423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>48</v>
       </c>
@@ -4412,7 +4447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>49</v>
       </c>
@@ -4436,7 +4471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>50</v>
       </c>
@@ -4460,7 +4495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="12" t="s">
         <v>51</v>
       </c>
@@ -4482,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4492,7 +4527,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4502,7 +4537,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4512,7 +4547,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B180" s="7" t="s">
         <v>57</v>
       </c>
@@ -4534,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4544,7 +4579,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>24</v>
       </c>
@@ -4568,7 +4603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>25</v>
       </c>
@@ -4592,7 +4627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>27</v>
       </c>
@@ -4616,7 +4651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>28</v>
       </c>
@@ -4640,7 +4675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>29</v>
       </c>
@@ -4664,7 +4699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>30</v>
       </c>
@@ -4688,7 +4723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>31</v>
       </c>
@@ -4712,7 +4747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>33</v>
       </c>
@@ -4736,7 +4771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>34</v>
       </c>
@@ -4760,7 +4795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>35</v>
       </c>
@@ -4784,7 +4819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>36</v>
       </c>
@@ -4808,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>37</v>
       </c>
@@ -4832,7 +4867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>38</v>
       </c>
@@ -4856,7 +4891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>39</v>
       </c>
@@ -4880,7 +4915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>40</v>
       </c>
@@ -4904,7 +4939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>41</v>
       </c>
@@ -4928,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>42</v>
       </c>
@@ -4952,7 +4987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>43</v>
       </c>
@@ -4976,7 +5011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>44</v>
       </c>
@@ -5000,7 +5035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>45</v>
       </c>
@@ -5024,7 +5059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>46</v>
       </c>
@@ -5048,7 +5083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
         <v>47</v>
       </c>
@@ -5072,7 +5107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="8" t="s">
         <v>48</v>
       </c>
@@ -5096,7 +5131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>49</v>
       </c>
@@ -5120,7 +5155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>50</v>
       </c>
@@ -5144,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="12" t="s">
         <v>51</v>
       </c>
@@ -5166,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -5176,7 +5211,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -5186,7 +5221,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -5196,7 +5231,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
         <v>58</v>
       </c>
@@ -5218,7 +5253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -5228,7 +5263,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>24</v>
       </c>
@@ -5252,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>25</v>
       </c>
@@ -5276,7 +5311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>27</v>
       </c>
@@ -5300,7 +5335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>28</v>
       </c>
@@ -5324,7 +5359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>29</v>
       </c>
@@ -5348,7 +5383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>30</v>
       </c>
@@ -5372,7 +5407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>31</v>
       </c>
@@ -5396,7 +5431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>33</v>
       </c>
@@ -5420,7 +5455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>34</v>
       </c>
@@ -5444,7 +5479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>35</v>
       </c>
@@ -5468,7 +5503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>36</v>
       </c>
@@ -5492,7 +5527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
         <v>37</v>
       </c>
@@ -5516,7 +5551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>38</v>
       </c>
@@ -5540,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
         <v>39</v>
       </c>
@@ -5564,7 +5599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B227" s="8" t="s">
         <v>40</v>
       </c>
@@ -5588,7 +5623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="10" t="s">
         <v>41</v>
       </c>
@@ -5612,7 +5647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" s="8" t="s">
         <v>42</v>
       </c>
@@ -5636,7 +5671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" s="10" t="s">
         <v>43</v>
       </c>
@@ -5660,7 +5695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B231" s="8" t="s">
         <v>44</v>
       </c>
@@ -5684,7 +5719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" s="10" t="s">
         <v>45</v>
       </c>
@@ -5708,7 +5743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" s="8" t="s">
         <v>46</v>
       </c>
@@ -5732,7 +5767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="10" t="s">
         <v>47</v>
       </c>
@@ -5756,7 +5791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="8" t="s">
         <v>48</v>
       </c>
@@ -5780,7 +5815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B236" s="10" t="s">
         <v>49</v>
       </c>
@@ -5804,7 +5839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" s="8" t="s">
         <v>50</v>
       </c>
@@ -5828,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="12" t="s">
         <v>51</v>
       </c>
@@ -5850,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -5860,7 +5895,7 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -5870,7 +5905,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -5880,7 +5915,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B242" s="7" t="s">
         <v>59</v>
       </c>
@@ -5902,7 +5937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -5912,7 +5947,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B244" s="8" t="s">
         <v>24</v>
       </c>
@@ -5936,7 +5971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B245" s="10" t="s">
         <v>25</v>
       </c>
@@ -5960,7 +5995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B246" s="8" t="s">
         <v>27</v>
       </c>
@@ -5984,7 +6019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B247" s="10" t="s">
         <v>28</v>
       </c>
@@ -6008,7 +6043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B248" s="8" t="s">
         <v>29</v>
       </c>
@@ -6032,7 +6067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B249" s="10" t="s">
         <v>30</v>
       </c>
@@ -6056,7 +6091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B250" s="8" t="s">
         <v>31</v>
       </c>
@@ -6080,7 +6115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B251" s="10" t="s">
         <v>33</v>
       </c>
@@ -6104,7 +6139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B252" s="8" t="s">
         <v>34</v>
       </c>
@@ -6128,7 +6163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B253" s="10" t="s">
         <v>35</v>
       </c>
@@ -6152,7 +6187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B254" s="8" t="s">
         <v>36</v>
       </c>
@@ -6176,7 +6211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B255" s="10" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +6235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B256" s="8" t="s">
         <v>38</v>
       </c>
@@ -6224,7 +6259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B257" s="10" t="s">
         <v>39</v>
       </c>
@@ -6248,7 +6283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B258" s="8" t="s">
         <v>40</v>
       </c>
@@ -6272,7 +6307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B259" s="10" t="s">
         <v>41</v>
       </c>
@@ -6296,7 +6331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B260" s="8" t="s">
         <v>42</v>
       </c>
@@ -6320,7 +6355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B261" s="10" t="s">
         <v>43</v>
       </c>
@@ -6344,7 +6379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B262" s="8" t="s">
         <v>44</v>
       </c>
@@ -6368,7 +6403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B263" s="10" t="s">
         <v>45</v>
       </c>
@@ -6392,7 +6427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B264" s="8" t="s">
         <v>46</v>
       </c>
@@ -6416,7 +6451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B265" s="10" t="s">
         <v>47</v>
       </c>
@@ -6440,7 +6475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B266" s="8" t="s">
         <v>48</v>
       </c>
@@ -6464,7 +6499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B267" s="10" t="s">
         <v>49</v>
       </c>
@@ -6488,7 +6523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B268" s="8" t="s">
         <v>50</v>
       </c>
@@ -6512,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B269" s="12" t="s">
         <v>51</v>
       </c>
@@ -6534,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -6544,7 +6579,7 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -6554,7 +6589,7 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -6564,7 +6599,7 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B273" s="7" t="s">
         <v>60</v>
       </c>
@@ -6586,7 +6621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -6596,7 +6631,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B275" s="8" t="s">
         <v>24</v>
       </c>
@@ -6620,7 +6655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B276" s="10" t="s">
         <v>30</v>
       </c>
@@ -6644,7 +6679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B277" s="8" t="s">
         <v>44</v>
       </c>
@@ -6668,7 +6703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B278" s="10" t="s">
         <v>45</v>
       </c>
@@ -6692,7 +6727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B279" s="8" t="s">
         <v>46</v>
       </c>
@@ -6716,7 +6751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B280" s="10" t="s">
         <v>49</v>
       </c>
@@ -6740,7 +6775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B281" s="8" t="s">
         <v>50</v>
       </c>
@@ -6764,7 +6799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -6774,7 +6809,7 @@
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -6784,7 +6819,7 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -6794,7 +6829,7 @@
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B285" s="7" t="s">
         <v>64</v>
       </c>
@@ -6816,7 +6851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -6826,7 +6861,7 @@
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B287" s="8" t="s">
         <v>24</v>
       </c>
@@ -6850,7 +6885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B288" s="10" t="s">
         <v>28</v>
       </c>
@@ -6874,7 +6909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B289" s="8" t="s">
         <v>30</v>
       </c>
@@ -6898,7 +6933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B290" s="10" t="s">
         <v>44</v>
       </c>
@@ -6922,7 +6957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B291" s="8" t="s">
         <v>45</v>
       </c>
@@ -6946,7 +6981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B292" s="10" t="s">
         <v>46</v>
       </c>
@@ -6970,7 +7005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B293" s="8" t="s">
         <v>48</v>
       </c>
@@ -6994,7 +7029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B294" s="10" t="s">
         <v>49</v>
       </c>
@@ -7018,7 +7053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -7028,7 +7063,7 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -7038,7 +7073,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -7048,7 +7083,7 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B298" s="7" t="s">
         <v>65</v>
       </c>
@@ -7070,7 +7105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -7080,7 +7115,7 @@
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B300" s="8" t="s">
         <v>24</v>
       </c>
@@ -7104,7 +7139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B301" s="10" t="s">
         <v>30</v>
       </c>
@@ -7128,7 +7163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B302" s="8" t="s">
         <v>44</v>
       </c>
@@ -7152,7 +7187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B303" s="10" t="s">
         <v>45</v>
       </c>
@@ -7176,7 +7211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B304" s="8" t="s">
         <v>46</v>
       </c>
@@ -7200,7 +7235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B305" s="10" t="s">
         <v>48</v>
       </c>
@@ -7224,7 +7259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B306" s="8" t="s">
         <v>49</v>
       </c>
@@ -7248,7 +7283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B307" s="10" t="s">
         <v>50</v>
       </c>
@@ -7272,7 +7307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -7282,7 +7317,7 @@
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -7292,7 +7327,7 @@
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -7302,7 +7337,7 @@
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B311" s="7" t="s">
         <v>66</v>
       </c>
@@ -7324,7 +7359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -7334,7 +7369,7 @@
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B313" s="8" t="s">
         <v>24</v>
       </c>
@@ -7356,7 +7391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B314" s="10" t="s">
         <v>28</v>
       </c>
@@ -7380,7 +7415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B315" s="8" t="s">
         <v>30</v>
       </c>
@@ -7404,7 +7439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B316" s="10" t="s">
         <v>44</v>
       </c>
@@ -7428,7 +7463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B317" s="8" t="s">
         <v>45</v>
       </c>
@@ -7450,7 +7485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B318" s="10" t="s">
         <v>46</v>
       </c>
@@ -7474,7 +7509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B319" s="8" t="s">
         <v>49</v>
       </c>
@@ -7498,7 +7533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B320" s="10" t="s">
         <v>50</v>
       </c>
@@ -7522,7 +7557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -7532,7 +7567,7 @@
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -7542,7 +7577,7 @@
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -7552,7 +7587,7 @@
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B324" s="7" t="s">
         <v>67</v>
       </c>
@@ -7574,7 +7609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -7584,7 +7619,7 @@
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B326" s="8" t="s">
         <v>68</v>
       </c>
@@ -7606,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B327" s="10" t="s">
         <v>69</v>
       </c>
@@ -7628,7 +7663,7 @@
         <v>-249689</v>
       </c>
     </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B328" s="8" t="s">
         <v>70</v>
       </c>
@@ -7650,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B329" s="10" t="s">
         <v>71</v>
       </c>
@@ -7672,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B330" s="8" t="s">
         <v>72</v>
       </c>
@@ -7694,7 +7729,7 @@
         <v>-42055</v>
       </c>
     </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B331" s="10" t="s">
         <v>73</v>
       </c>
@@ -7716,7 +7751,7 @@
         <v>-19210</v>
       </c>
     </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B332" s="8" t="s">
         <v>74</v>
       </c>
@@ -7738,7 +7773,7 @@
         <v>-632957</v>
       </c>
     </row>
-    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B333" s="10" t="s">
         <v>75</v>
       </c>
@@ -7760,7 +7795,7 @@
         <v>-222537</v>
       </c>
     </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B334" s="8" t="s">
         <v>76</v>
       </c>
@@ -7782,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B335" s="10" t="s">
         <v>77</v>
       </c>
@@ -7804,7 +7839,7 @@
         <v>-166983</v>
       </c>
     </row>
-    <row r="336" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B336" s="14" t="s">
         <v>51</v>
       </c>
@@ -7826,7 +7861,7 @@
         <v>-1333431</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -7836,7 +7871,7 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
-    <row r="340" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B340" s="7" t="s">
         <v>78</v>
       </c>
@@ -7845,7 +7880,7 @@
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B342" s="8" t="s">
         <v>79</v>
       </c>
@@ -7856,7 +7891,7 @@
       <c r="E342" s="9"/>
       <c r="F342" s="9"/>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B343" s="10" t="s">
         <v>81</v>
       </c>
@@ -7867,7 +7902,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B344" s="8" t="s">
         <v>83</v>
       </c>
@@ -7878,7 +7913,7 @@
       <c r="E344" s="9"/>
       <c r="F344" s="9"/>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B345" s="10" t="s">
         <v>85</v>
       </c>
@@ -7889,7 +7924,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B346" s="8" t="s">
         <v>87</v>
       </c>
@@ -7900,7 +7935,7 @@
       <c r="E346" s="9"/>
       <c r="F346" s="9"/>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B347" s="10" t="s">
         <v>89</v>
       </c>
@@ -7911,7 +7946,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B348" s="8" t="s">
         <v>91</v>
       </c>
